--- a/public/ExcelTemplates/ItemsMap.xlsx
+++ b/public/ExcelTemplates/ItemsMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmoud.fayez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmoud.fayez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D72E0F-01EA-466F-9AEF-CD4BD90DBFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F43CBC-16FC-46FC-9211-D87CDFA9392C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{58FCEA04-8E3E-4950-957A-7704CC5AC15A}"/>
   </bookViews>
@@ -70,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,22 +100,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,58 +142,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -220,30 +153,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{8C1DB0B9-B13B-4079-A23E-5B0A26EF2338}"/>
@@ -1580,815 +1495,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B31E33B-E0C3-41B2-AC50-108C3453A41C}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD155"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="84.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="84.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="18">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="18">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="18">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="18">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="18">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="18">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="18">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="18">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="18">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="18">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="18">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="18">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.75">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="18">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="18">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="18">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="18">
-      <c r="A26" s="4"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="18">
-      <c r="A27" s="4"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="18">
-      <c r="A28" s="4"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="18">
-      <c r="A29" s="4"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" ht="18">
-      <c r="A30" s="4"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="18">
-      <c r="A31" s="4"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="18">
-      <c r="A32" s="4"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="18">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="18">
-      <c r="A34" s="4"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="18">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="18">
-      <c r="A36" s="4"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" ht="18">
-      <c r="A37" s="4"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="18">
-      <c r="A38" s="4"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="18">
-      <c r="A39" s="3"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="18">
-      <c r="A40" s="4"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" ht="18">
-      <c r="A41" s="4"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" ht="18">
-      <c r="A42" s="3"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" ht="18">
-      <c r="A43" s="4"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" ht="18">
-      <c r="A44" s="6"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" ht="18">
-      <c r="A45" s="6"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" ht="18">
-      <c r="A46" s="3"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" ht="18">
-      <c r="A47" s="4"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" ht="18">
-      <c r="A48" s="4"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" ht="18">
-      <c r="A49" s="4"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" ht="18">
-      <c r="A50" s="4"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" ht="18">
-      <c r="A51" s="4"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" ht="18">
-      <c r="A52" s="4"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" ht="18">
-      <c r="A53" s="4"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" ht="18">
-      <c r="A54" s="4"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" ht="18">
-      <c r="A55" s="4"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" ht="18">
-      <c r="A56" s="4"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="1:3" ht="18">
-      <c r="A57" s="4"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="1:3" ht="18">
-      <c r="A58" s="4"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:3" ht="18">
-      <c r="A59" s="4"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:3" ht="18">
-      <c r="A60" s="4"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="1:3" ht="18">
-      <c r="A61" s="4"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:3" ht="18">
-      <c r="A62" s="4"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" ht="18">
-      <c r="A63" s="4"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="1:3" ht="18">
-      <c r="A64" s="4"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="1:3" ht="18">
-      <c r="A65" s="4"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" ht="18">
-      <c r="A66" s="4"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="1:3" ht="18">
-      <c r="A67" s="4"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="1:3" ht="18">
-      <c r="A68" s="4"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" ht="18">
-      <c r="A69" s="4"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" ht="18">
-      <c r="A70" s="4"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" ht="21">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:3" ht="18">
-      <c r="A72" s="3"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:3" ht="18">
-      <c r="A73" s="3"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" ht="18">
-      <c r="A74" s="3"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:3" ht="18">
-      <c r="A75" s="3"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="21">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="21">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:3" ht="21">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" ht="21">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-    </row>
-    <row r="80" spans="1:3" ht="21">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:3" ht="21">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="1:3" ht="21">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="1:3" ht="21">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:3" ht="21">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:3" ht="21">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-    </row>
-    <row r="86" spans="1:3" ht="18">
-      <c r="A86" s="3"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-    </row>
-    <row r="87" spans="1:3" ht="18">
-      <c r="A87" s="3"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:3" ht="18">
-      <c r="A88" s="3"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-    </row>
-    <row r="89" spans="1:3" ht="18">
-      <c r="A89" s="3"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="1:3" ht="18">
-      <c r="A90" s="3"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="1:3" ht="18">
-      <c r="A91" s="3"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-    </row>
-    <row r="92" spans="1:3" ht="18">
-      <c r="A92" s="3"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-    </row>
-    <row r="93" spans="1:3" ht="18">
-      <c r="A93" s="3"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-    </row>
-    <row r="94" spans="1:3" ht="18">
-      <c r="A94" s="3"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-    </row>
-    <row r="95" spans="1:3" ht="18">
-      <c r="A95" s="3"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-    </row>
-    <row r="96" spans="1:3" ht="18">
-      <c r="A96" s="3"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" ht="18">
-      <c r="A97" s="3"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" ht="18">
-      <c r="A98" s="3"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-    </row>
-    <row r="99" spans="1:3" ht="18">
-      <c r="A99" s="3"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" ht="18">
-      <c r="A100" s="3"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" ht="18">
-      <c r="A101" s="3"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-    </row>
-    <row r="102" spans="1:3" ht="18">
-      <c r="A102" s="3"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-    </row>
-    <row r="103" spans="1:3" ht="18">
-      <c r="A103" s="3"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-    </row>
-    <row r="104" spans="1:3" ht="18">
-      <c r="A104" s="3"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-    </row>
-    <row r="105" spans="1:3" ht="18">
-      <c r="A105" s="3"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" ht="18">
-      <c r="A106" s="3"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-    </row>
-    <row r="107" spans="1:3" ht="18">
-      <c r="A107" s="3"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-    </row>
-    <row r="108" spans="1:3" ht="18">
-      <c r="A108" s="3"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-    </row>
-    <row r="109" spans="1:3" ht="18">
-      <c r="A109" s="3"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-    </row>
-    <row r="110" spans="1:3" ht="18">
-      <c r="A110" s="3"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-    </row>
-    <row r="111" spans="1:3" ht="18">
-      <c r="A111" s="3"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-    </row>
-    <row r="112" spans="1:3" ht="18">
-      <c r="A112" s="3"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-    </row>
-    <row r="113" spans="1:3" ht="18">
-      <c r="A113" s="3"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-    </row>
-    <row r="114" spans="1:3" ht="18">
-      <c r="A114" s="3"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="1:3" ht="18">
-      <c r="A115" s="3"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-    </row>
-    <row r="116" spans="1:3" ht="18">
-      <c r="A116" s="3"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-    </row>
-    <row r="117" spans="1:3" ht="18">
-      <c r="A117" s="3"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-    </row>
-    <row r="118" spans="1:3" ht="18">
-      <c r="A118" s="3"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-    </row>
-    <row r="119" spans="1:3" ht="18">
-      <c r="A119" s="3"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-    </row>
-    <row r="120" spans="1:3" ht="18">
-      <c r="A120" s="3"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-    </row>
-    <row r="121" spans="1:3" ht="18">
-      <c r="A121" s="3"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-    </row>
-    <row r="122" spans="1:3" ht="18">
-      <c r="A122" s="3"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-    </row>
-    <row r="123" spans="1:3" ht="18">
-      <c r="A123" s="3"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-    </row>
-    <row r="124" spans="1:3" ht="18">
-      <c r="A124" s="3"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-    </row>
-    <row r="125" spans="1:3" ht="18">
-      <c r="A125" s="3"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-    </row>
-    <row r="126" spans="1:3" ht="18">
-      <c r="A126" s="3"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-    </row>
-    <row r="127" spans="1:3" ht="18">
-      <c r="A127" s="3"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-    </row>
-    <row r="128" spans="1:3" ht="18">
-      <c r="A128" s="3"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-    </row>
-    <row r="129" spans="1:3" ht="18">
-      <c r="A129" s="3"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-    </row>
-    <row r="130" spans="1:3" ht="18">
-      <c r="A130" s="3"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-    </row>
-    <row r="131" spans="1:3" ht="18">
-      <c r="A131" s="3"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-    </row>
-    <row r="132" spans="1:3" ht="18">
-      <c r="A132" s="3"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-    </row>
-    <row r="133" spans="1:3" ht="18">
-      <c r="A133" s="3"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-    </row>
-    <row r="134" spans="1:3" ht="18">
-      <c r="A134" s="3"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-    </row>
-    <row r="135" spans="1:3" ht="18">
-      <c r="A135" s="3"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-    </row>
-    <row r="136" spans="1:3" ht="18">
-      <c r="A136" s="3"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-    </row>
-    <row r="137" spans="1:3" ht="18">
-      <c r="A137" s="3"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-    </row>
-    <row r="138" spans="1:3" ht="18">
-      <c r="A138" s="3"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-    </row>
-    <row r="139" spans="1:3" ht="18">
-      <c r="A139" s="3"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-    </row>
-    <row r="140" spans="1:3" ht="18">
-      <c r="A140" s="3"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-    </row>
-    <row r="141" spans="1:3" ht="18">
-      <c r="A141" s="3"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-    </row>
-    <row r="142" spans="1:3" ht="18">
-      <c r="A142" s="3"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-    </row>
-    <row r="143" spans="1:3" ht="18">
-      <c r="A143" s="3"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-    </row>
-    <row r="144" spans="1:3" ht="18">
-      <c r="A144" s="3"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-    </row>
-    <row r="145" spans="1:3" ht="18">
-      <c r="A145" s="3"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-    </row>
-    <row r="146" spans="1:3" ht="18">
-      <c r="A146" s="3"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-    </row>
-    <row r="147" spans="1:3" ht="18">
-      <c r="A147" s="3"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-    </row>
-    <row r="148" spans="1:3" ht="18">
-      <c r="A148" s="3"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-    </row>
-    <row r="149" spans="1:3" ht="18">
-      <c r="A149" s="3"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-    </row>
-    <row r="150" spans="1:3" ht="18">
-      <c r="A150" s="3"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-    </row>
-    <row r="151" spans="1:3" ht="18">
-      <c r="A151" s="3"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-    </row>
-    <row r="152" spans="1:3" ht="18">
-      <c r="A152" s="3"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-    </row>
-    <row r="153" spans="1:3" ht="18">
-      <c r="A153" s="3"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-    </row>
-    <row r="154" spans="1:3" ht="18">
-      <c r="A154" s="3"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-    </row>
-    <row r="155" spans="1:3" ht="18">
-      <c r="A155" s="3"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{1B31E33B-E0C3-41B2-AC50-108C3453A41C}"/>
-  <conditionalFormatting sqref="A2:C2 A156:C1048576">
+  <conditionalFormatting sqref="A2:C2">
     <cfRule type="duplicateValues" dxfId="117" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
@@ -2421,327 +1571,7 @@
   <conditionalFormatting sqref="A2:C2">
     <cfRule type="duplicateValues" dxfId="107" priority="333"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="106" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="105" priority="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A61 A53:A54 A46:A47 A42 A40 A36 A23 A20 A5">
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A61 A53:A54 A46:A47 A42 A40 A36 A23 A20 A5">
-    <cfRule type="duplicateValues" dxfId="103" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="102" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="101" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="100" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="99" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="98" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="97" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="96" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="95" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="94" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="93" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="92" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="91" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="90" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="89" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="88" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="87" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A14">
-    <cfRule type="duplicateValues" dxfId="86" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A14">
-    <cfRule type="duplicateValues" dxfId="85" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="84" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="83" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A17">
-    <cfRule type="duplicateValues" dxfId="82" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A17">
-    <cfRule type="duplicateValues" dxfId="81" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="80" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="79" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="78" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="77" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="76" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="75" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="74" priority="71" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="73" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="72" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="71" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="70" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="69" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="68" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="67" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="66" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="65" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="64" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="63" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="62" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="61" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="60" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="59" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A33">
-    <cfRule type="duplicateValues" dxfId="57" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A33">
-    <cfRule type="duplicateValues" dxfId="56" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="55" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="54" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="52" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="51" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="50" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="49" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="48" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="46" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="45" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="44" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="43" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="41" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="40" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="39" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="37" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="32" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="31" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A57">
-    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A57">
-    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="25" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A65">
-    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A65">
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A69">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A69">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A102">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A102">
-    <cfRule type="duplicateValues" dxfId="10" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A102">
-    <cfRule type="duplicateValues" dxfId="9" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A121">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A121">
-    <cfRule type="duplicateValues" dxfId="7" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A103:A121">
-    <cfRule type="duplicateValues" dxfId="6" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122:A155">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122:A155">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122:A155">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D102">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103:D121">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D122:D155">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>